--- a/LMADefs-Demo_sl.xlsx
+++ b/LMADefs-Demo_sl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_001_SL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_007_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DA91CD-4181-47AB-B091-E4156F7FA496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAF7250-EC1D-4020-AC19-B9EFADCCC014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Unit</t>
   </si>
@@ -133,9 +133,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Consumption/Export</t>
   </si>
   <si>
@@ -143,6 +140,18 @@
   </si>
   <si>
     <t>NRG,DEM</t>
+  </si>
+  <si>
+    <t>-TRD_ENDO</t>
+  </si>
+  <si>
+    <t>TRD_ENDO</t>
+  </si>
+  <si>
+    <t>&lt;gen_cname&gt;_Snk_Export</t>
+  </si>
+  <si>
+    <t>&lt;gen_cname&gt;_Src_Import</t>
   </si>
 </sst>
 </file>
@@ -5601,9 +5610,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4085">
     <cellStyle name="20% - Accent1 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9993,31 +10003,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A2:S5"/>
+  <dimension ref="A2:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.73046875" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.265625" customWidth="1"/>
-    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.53125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.53125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
@@ -10104,15 +10115,15 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -10137,10 +10148,10 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
       </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10162,6 +10173,40 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10290,7 +10335,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>22</v>
@@ -10307,7 +10352,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>22</v>

--- a/LMADefs-Demo_sl.xlsx
+++ b/LMADefs-Demo_sl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_007_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAF7250-EC1D-4020-AC19-B9EFADCCC014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D924B-1818-419D-9F85-22744788FB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Unit</t>
   </si>
@@ -10006,7 +10006,7 @@
   <dimension ref="A2:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10191,6 +10191,9 @@
       <c r="M6" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
@@ -10207,6 +10210,9 @@
       </c>
       <c r="M7" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/LMADefs-Demo_sl.xlsx
+++ b/LMADefs-Demo_sl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_007_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D924B-1818-419D-9F85-22744788FB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BFEBFF-A052-4D39-B4E8-17474BA569C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3278" yWindow="3278" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_Defs Sankey" sheetId="85" r:id="rId1"/>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>TS</t>
-  </si>
-  <si>
-    <t>PJ</t>
   </si>
   <si>
     <t>VAR_FIN</t>
@@ -112,12 +109,6 @@
     <t>~TS_Defs: Snk_attr=SANKEY</t>
   </si>
   <si>
-    <t>&lt;gen_cname&gt;_Snk_&lt;gen_pname&gt;</t>
-  </si>
-  <si>
-    <t>&lt;gen_cname&gt;_Src_&lt;gen_pname&gt;</t>
-  </si>
-  <si>
     <t>~TS_Defs</t>
   </si>
   <si>
@@ -152,6 +143,15 @@
   </si>
   <si>
     <t>&lt;gen_cname&gt;_Src_Import</t>
+  </si>
+  <si>
+    <t>&lt;c&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gen_cname&gt;-&lt;c&gt;_Snk_&lt;gen_pname&gt;</t>
+  </si>
+  <si>
+    <t>&lt;gen_cname&gt;-&lt;c&gt;_Src_&lt;gen_pname&gt;</t>
   </si>
 </sst>
 </file>
@@ -10006,7 +10006,7 @@
   <dimension ref="A2:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10033,7 +10033,7 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -10056,31 +10056,31 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>2</v>
@@ -10098,47 +10098,47 @@
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -10149,7 +10149,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -10162,37 +10162,37 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10200,19 +10200,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -10226,7 +10226,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10254,36 +10254,36 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>2</v>
@@ -10301,50 +10301,50 @@
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -10352,16 +10352,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
